--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01074015</t>
+          <t>01074014</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -484,7 +484,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>IGNORE</t>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01074027</t>
+          <t>71074012</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IGNORE</t>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15073034</t>
+          <t>10074015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -518,270 +518,392 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IGNORE</t>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>476698</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>多賀城市大代2丁目(2棟)1号棟</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15074019</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>51074035</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>476700</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>多賀城市大代2丁目(2棟)2号棟</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>71074010</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>51074035</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>466415</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>浜松市中央区三島町(3棟)2号棟</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>44074020</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>65074020</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>466412</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>浜松市中央区三島町(3棟)1号棟</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>50674023</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>65074020</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>466416</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>浜松市中央区三島町(3棟)3号棟</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>51674019</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>65074020</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>476694</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>生駒市あすか野南3丁目1棟</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01074014</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>83274038</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>472704</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>豊能町ときわ台2丁目1棟</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>71074012</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>84774025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>475413</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>豊能町ときわ台6丁目3期1棟</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10074015</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>IGNORE</t>
-        </is>
+          <t>84774026</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>476698</t>
+          <t>474645</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>多賀城市大代2丁目(2棟)1号棟</t>
+          <t>西宮市北六甲台3丁目3期1棟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>51074035</t>
+          <t>84774027</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>476700</t>
+          <t>476437</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>多賀城市大代2丁目(2棟)2号棟</t>
+          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>51074035</t>
+          <t>84974036</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>466415</t>
+          <t>476440</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)2号棟</t>
+          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>84974036</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>466412</t>
+          <t>470796</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)1号棟</t>
+          <t>福岡市早良区内野5丁目1棟</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>84074022</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -790,292 +912,10 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>466416</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>浜松市中央区三島町(3棟)3号棟</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>65074020</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>476694</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>生駒市あすか野南3丁目1棟</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>83274038</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>472704</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>豊能町ときわ台2丁目1棟</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>84774025</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>475413</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>豊能町ときわ台6丁目3期1棟</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>84774026</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>474645</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>西宮市北六甲台3丁目3期1棟</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>84774027</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>476437</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>84974036</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>476440</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>84974036</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>470796</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>福岡市早良区内野5丁目1棟</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>84074022</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>指定された案件は存在しないか、既に削除されています</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>476700</t>
+          <t>476698</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,31 +591,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>466415</t>
+          <t>476700</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)2号棟</t>
+          <t>多賀城市大代2丁目(2棟)1号棟</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>51074035</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -624,31 +624,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>466412</t>
+          <t>476700</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)1号棟</t>
+          <t>多賀城市大代2丁目(2棟)2号棟</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>51074035</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -657,12 +657,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>466416</t>
+          <t>466415</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)3号棟</t>
+          <t>浜松市中央区三島町(3棟)2号棟</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -677,11 +677,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -690,31 +690,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>476694</t>
+          <t>466415</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>生駒市あすか野南3丁目1棟</t>
+          <t>浜松市中央区三島町(3棟)1号棟</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>83274038</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -723,27 +723,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>472704</t>
+          <t>466415</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>豊能町ときわ台2丁目1棟</t>
+          <t>浜松市中央区三島町(3棟)3号棟</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>84774025</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
@@ -756,31 +756,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>475413</t>
+          <t>466412</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>豊能町ときわ台6丁目3期1棟</t>
+          <t>浜松市中央区三島町(3棟)2号棟</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>84774026</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -789,31 +789,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>474645</t>
+          <t>466412</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西宮市北六甲台3丁目3期1棟</t>
+          <t>浜松市中央区三島町(3棟)1号棟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>84774027</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -822,27 +822,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>476437</t>
+          <t>466412</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
+          <t>浜松市中央区三島町(3棟)3号棟</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>84974036</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
@@ -855,31 +855,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>476440</t>
+          <t>466416</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
+          <t>浜松市中央区三島町(3棟)2号棟</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>84974036</t>
+          <t>65074020</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -888,33 +888,363 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>466416</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浜松市中央区三島町(3棟)1号棟</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>65074020</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>466416</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>浜松市中央区三島町(3棟)3号棟</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>65074020</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>476694</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>生駒市あすか野南3丁目1棟</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>83274038</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>472704</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>豊能町ときわ台2丁目1棟</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>84774025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>475413</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>豊能町ときわ台6丁目3期1棟</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>84774026</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>474645</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>西宮市北六甲台3丁目3期1棟</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>84774027</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>476437</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>84974036</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>476437</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>84974036</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>476440</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>84974036</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>476440</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>84974036</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>470796</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>福岡市早良区内野5丁目1棟</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>84074022</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01074014</t>
+          <t>10074022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -493,7 +493,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>71074012</t>
+          <t>50274024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -510,7 +510,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10074015</t>
+          <t>71074001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -523,349 +523,261 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>476698</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>多賀城市大代2丁目(2棟)1号棟</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>51074035</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+          <t>71074011</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>476698</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>多賀城市大代2丁目(2棟)2号棟</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>51074035</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+          <t>17074027</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>476700</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>多賀城市大代2丁目(2棟)1号棟</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>51074035</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
+          <t>50374013</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>476700</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>多賀城市大代2丁目(2棟)2号棟</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>51074035</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
+          <t>51774021</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>466415</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>浜松市中央区三島町(3棟)2号棟</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>65074020</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
+          <t>51774025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>466415</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>浜松市中央区三島町(3棟)1号棟</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>65074020</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
+          <t>70074019</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>466415</t>
+          <t>477144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)3号棟</t>
+          <t>北名古屋市二子比良出(2棟)2号棟</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83974008</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>466412</t>
+          <t>477144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)2号棟</t>
+          <t>北名古屋市二子比良出(2棟)1号棟</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83974008</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>466412</t>
+          <t>477141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)1号棟</t>
+          <t>北名古屋市二子比良出(2棟)2号棟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83974008</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>466412</t>
+          <t>477141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)3号棟</t>
+          <t>北名古屋市二子比良出(2棟)1号棟</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83974008</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>466416</t>
+          <t>469685</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)2号棟</t>
+          <t>神戸市垂水区神陵台9丁目1棟</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83374015</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -875,377 +787,592 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>466416</t>
+          <t>473715</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)1号棟</t>
+          <t>加古川市新神野4丁目(2棟)1号棟</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83374019</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>466416</t>
+          <t>473715</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>浜松市中央区三島町(3棟)3号棟</t>
+          <t>加古川市新神野4丁目(2棟)2号棟</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>65074020</t>
+          <t>83374019</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>476694</t>
+          <t>473720</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>生駒市あすか野南3丁目1棟</t>
+          <t>加古川市新神野4丁目(2棟)1号棟</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>83274038</t>
+          <t>83374019</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(False, StaleElementReferenceException())</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>472704</t>
+          <t>473720</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>豊能町ときわ台2丁目1棟</t>
+          <t>加古川市新神野4丁目(2棟)2号棟</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>84774025</t>
+          <t>83374019</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(False, StaleElementReferenceException())</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>475413</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>豊能町ときわ台6丁目3期1棟</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>84774026</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+          <t>83374020</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>474645</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>西宮市北六甲台3丁目3期1棟</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>84774027</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
+          <t>83374021</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>476437</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>84974036</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
+          <t>83374022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>KHÔNG LẤY ĐƯỢC THÔNG TIN Ở WEB ACCESS</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>476437</t>
+          <t>473722</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
+          <t>小野市黒川町(3棟)1号棟</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>84974036</t>
+          <t>84374015</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>476440</t>
+          <t>473722</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>八幡市八幡柿木垣内(2棟)1号棟</t>
+          <t>小野市黒川町(3棟)2号棟</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>84974036</t>
+          <t>84374015</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>476440</t>
+          <t>473722</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>八幡市八幡柿木垣内(2棟)2号棟</t>
+          <t>小野市黒川町(3棟)3号棟</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>84974036</t>
+          <t>84374015</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>470796</t>
+          <t>473724</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>福岡市早良区内野5丁目1棟</t>
+          <t>小野市黒川町(3棟)1号棟</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>84074022</t>
+          <t>84374015</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(False, StaleElementReferenceException())</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>473724</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>小野市黒川町(3棟)2号棟</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>84374015</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(False, StaleElementReferenceException())</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>473724</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>小野市黒川町(3棟)3号棟</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>84374015</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(False, StaleElementReferenceException())</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>473726</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>小野市黒川町(3棟)1号棟</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>84374015</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>473726</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>小野市黒川町(3棟)2号棟</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>84374015</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>473726</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>小野市黒川町(3棟)3号棟</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>84374015</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>475149</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>小野市神明町2期1棟</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>84374021</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>469688</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>熊本市南区良町2丁目1棟</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>84574017</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(True, '案件との関連付けを行いました。')</t>
+        </is>
       </c>
     </row>
   </sheetData>
